--- a/BaoCaoCaNhan/Weekly_Report_Quan.xlsx
+++ b/BaoCaoCaNhan/Weekly_Report_Quan.xlsx
@@ -264,7 +264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
   <si>
     <t>Project</t>
   </si>
@@ -384,6 +384,18 @@
   </si>
   <si>
     <t>1 phần SRS</t>
+  </si>
+  <si>
+    <t>21/9/2012</t>
+  </si>
+  <si>
+    <t>Tổng hợp các phần của SRS thành báo cáo nhóm, gửi bài nộp lên sakai</t>
+  </si>
+  <si>
+    <t>SRS version 1.0</t>
+  </si>
+  <si>
+    <t>Xong</t>
   </si>
 </sst>
 </file>
@@ -3100,7 +3112,7 @@
   <dimension ref="A1:AMJ24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4272,11 +4284,15 @@
       <c r="C5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="9"/>
+      <c r="D5" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="E5" s="9">
         <v>4</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="9">
+        <v>4</v>
+      </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
@@ -5296,10 +5312,16 @@
       <c r="AMI5" s="11"/>
       <c r="AMJ5" s="11"/>
     </row>
-    <row r="6" spans="1:1024" s="12" customFormat="1">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
+    <row r="6" spans="1:1024" s="12" customFormat="1" ht="28.5">
+      <c r="A6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>

--- a/BaoCaoCaNhan/Weekly_Report_Quan.xlsx
+++ b/BaoCaoCaNhan/Weekly_Report_Quan.xlsx
@@ -264,7 +264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
   <si>
     <t>Project</t>
   </si>
@@ -396,6 +396,15 @@
   </si>
   <si>
     <t>Xong</t>
+  </si>
+  <si>
+    <t>Hoàn chỉnh SRS cùng nhóm</t>
+  </si>
+  <si>
+    <t>SRS final</t>
+  </si>
+  <si>
+    <t>24/9/2012</t>
   </si>
 </sst>
 </file>
@@ -3112,7 +3121,7 @@
   <dimension ref="A1:AMJ24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5323,8 +5332,12 @@
         <v>42</v>
       </c>
       <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="E6" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.5</v>
+      </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -6345,11 +6358,19 @@
       <c r="AMJ6" s="11"/>
     </row>
     <row r="7" spans="1:1024" s="12" customFormat="1">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
+      <c r="A7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="E7" s="9">
+        <v>8</v>
+      </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>

--- a/BaoCaoCaNhan/Weekly_Report_Quan.xlsx
+++ b/BaoCaoCaNhan/Weekly_Report_Quan.xlsx
@@ -11,8 +11,8 @@
     <sheet name="Task_Guideline" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Excel_BuiltIn__FilterDatabase">Task!$A$4:$F$11</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Task!$A$1:$N$32</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase">Task!$A$4:$F$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Task!$A$1:$N$31</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -264,7 +264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
   <si>
     <t>Project</t>
   </si>
@@ -384,15 +384,6 @@
   </si>
   <si>
     <t>1 phần SRS</t>
-  </si>
-  <si>
-    <t>21/9/2012</t>
-  </si>
-  <si>
-    <t>Tổng hợp các phần của SRS thành báo cáo nhóm, gửi bài nộp lên sakai</t>
-  </si>
-  <si>
-    <t>SRS version 1.0</t>
   </si>
   <si>
     <t>Xong</t>
@@ -3118,10 +3109,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ24"/>
+  <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4294,7 +4285,7 @@
         <v>39</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E5" s="9">
         <v>4</v>
@@ -5321,9 +5312,9 @@
       <c r="AMI5" s="11"/>
       <c r="AMJ5" s="11"/>
     </row>
-    <row r="6" spans="1:1024" s="12" customFormat="1" ht="28.5">
+    <row r="6" spans="1:1024" s="12" customFormat="1">
       <c r="A6" s="9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>41</v>
@@ -5333,11 +5324,9 @@
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9">
-        <v>0.5</v>
+        <v>8</v>
       </c>
-      <c r="F6" s="9">
-        <v>0.5</v>
-      </c>
+      <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -5347,20 +5336,20 @@
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="11"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13"/>
       <c r="AD6" s="11"/>
       <c r="AE6" s="11"/>
       <c r="AF6" s="11"/>
@@ -6358,19 +6347,11 @@
       <c r="AMJ6" s="11"/>
     </row>
     <row r="7" spans="1:1024" s="12" customFormat="1">
-      <c r="A7" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>45</v>
-      </c>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="9">
-        <v>8</v>
-      </c>
+      <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -6381,20 +6362,20 @@
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="13"/>
-      <c r="AC7" s="13"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
       <c r="AD7" s="11"/>
       <c r="AE7" s="11"/>
       <c r="AF7" s="11"/>
@@ -23807,1032 +23788,6 @@
       <c r="AMI23" s="11"/>
       <c r="AMJ23" s="11"/>
     </row>
-    <row r="24" spans="1:1024" s="12" customFormat="1">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="11"/>
-      <c r="Z24" s="11"/>
-      <c r="AA24" s="11"/>
-      <c r="AB24" s="11"/>
-      <c r="AC24" s="11"/>
-      <c r="AD24" s="11"/>
-      <c r="AE24" s="11"/>
-      <c r="AF24" s="11"/>
-      <c r="AG24" s="11"/>
-      <c r="AH24" s="11"/>
-      <c r="AI24" s="11"/>
-      <c r="AJ24" s="11"/>
-      <c r="AK24" s="11"/>
-      <c r="AL24" s="11"/>
-      <c r="AM24" s="11"/>
-      <c r="AN24" s="11"/>
-      <c r="AO24" s="11"/>
-      <c r="AP24" s="11"/>
-      <c r="AQ24" s="11"/>
-      <c r="AR24" s="11"/>
-      <c r="AS24" s="11"/>
-      <c r="AT24" s="11"/>
-      <c r="AU24" s="11"/>
-      <c r="AV24" s="11"/>
-      <c r="AW24" s="11"/>
-      <c r="AX24" s="11"/>
-      <c r="AY24" s="11"/>
-      <c r="AZ24" s="11"/>
-      <c r="BA24" s="11"/>
-      <c r="BB24" s="11"/>
-      <c r="BC24" s="11"/>
-      <c r="BD24" s="11"/>
-      <c r="BE24" s="11"/>
-      <c r="BF24" s="11"/>
-      <c r="BG24" s="11"/>
-      <c r="BH24" s="11"/>
-      <c r="BI24" s="11"/>
-      <c r="BJ24" s="11"/>
-      <c r="BK24" s="11"/>
-      <c r="BL24" s="11"/>
-      <c r="BM24" s="11"/>
-      <c r="BN24" s="11"/>
-      <c r="BO24" s="11"/>
-      <c r="BP24" s="11"/>
-      <c r="BQ24" s="11"/>
-      <c r="BR24" s="11"/>
-      <c r="BS24" s="11"/>
-      <c r="BT24" s="11"/>
-      <c r="BU24" s="11"/>
-      <c r="BV24" s="11"/>
-      <c r="BW24" s="11"/>
-      <c r="BX24" s="11"/>
-      <c r="BY24" s="11"/>
-      <c r="BZ24" s="11"/>
-      <c r="CA24" s="11"/>
-      <c r="CB24" s="11"/>
-      <c r="CC24" s="11"/>
-      <c r="CD24" s="11"/>
-      <c r="CE24" s="11"/>
-      <c r="CF24" s="11"/>
-      <c r="CG24" s="11"/>
-      <c r="CH24" s="11"/>
-      <c r="CI24" s="11"/>
-      <c r="CJ24" s="11"/>
-      <c r="CK24" s="11"/>
-      <c r="CL24" s="11"/>
-      <c r="CM24" s="11"/>
-      <c r="CN24" s="11"/>
-      <c r="CO24" s="11"/>
-      <c r="CP24" s="11"/>
-      <c r="CQ24" s="11"/>
-      <c r="CR24" s="11"/>
-      <c r="CS24" s="11"/>
-      <c r="CT24" s="11"/>
-      <c r="CU24" s="11"/>
-      <c r="CV24" s="11"/>
-      <c r="CW24" s="11"/>
-      <c r="CX24" s="11"/>
-      <c r="CY24" s="11"/>
-      <c r="CZ24" s="11"/>
-      <c r="DA24" s="11"/>
-      <c r="DB24" s="11"/>
-      <c r="DC24" s="11"/>
-      <c r="DD24" s="11"/>
-      <c r="DE24" s="11"/>
-      <c r="DF24" s="11"/>
-      <c r="DG24" s="11"/>
-      <c r="DH24" s="11"/>
-      <c r="DI24" s="11"/>
-      <c r="DJ24" s="11"/>
-      <c r="DK24" s="11"/>
-      <c r="DL24" s="11"/>
-      <c r="DM24" s="11"/>
-      <c r="DN24" s="11"/>
-      <c r="DO24" s="11"/>
-      <c r="DP24" s="11"/>
-      <c r="DQ24" s="11"/>
-      <c r="DR24" s="11"/>
-      <c r="DS24" s="11"/>
-      <c r="DT24" s="11"/>
-      <c r="DU24" s="11"/>
-      <c r="DV24" s="11"/>
-      <c r="DW24" s="11"/>
-      <c r="DX24" s="11"/>
-      <c r="DY24" s="11"/>
-      <c r="DZ24" s="11"/>
-      <c r="EA24" s="11"/>
-      <c r="EB24" s="11"/>
-      <c r="EC24" s="11"/>
-      <c r="ED24" s="11"/>
-      <c r="EE24" s="11"/>
-      <c r="EF24" s="11"/>
-      <c r="EG24" s="11"/>
-      <c r="EH24" s="11"/>
-      <c r="EI24" s="11"/>
-      <c r="EJ24" s="11"/>
-      <c r="EK24" s="11"/>
-      <c r="EL24" s="11"/>
-      <c r="EM24" s="11"/>
-      <c r="EN24" s="11"/>
-      <c r="EO24" s="11"/>
-      <c r="EP24" s="11"/>
-      <c r="EQ24" s="11"/>
-      <c r="ER24" s="11"/>
-      <c r="ES24" s="11"/>
-      <c r="ET24" s="11"/>
-      <c r="EU24" s="11"/>
-      <c r="EV24" s="11"/>
-      <c r="EW24" s="11"/>
-      <c r="EX24" s="11"/>
-      <c r="EY24" s="11"/>
-      <c r="EZ24" s="11"/>
-      <c r="FA24" s="11"/>
-      <c r="FB24" s="11"/>
-      <c r="FC24" s="11"/>
-      <c r="FD24" s="11"/>
-      <c r="FE24" s="11"/>
-      <c r="FF24" s="11"/>
-      <c r="FG24" s="11"/>
-      <c r="FH24" s="11"/>
-      <c r="FI24" s="11"/>
-      <c r="FJ24" s="11"/>
-      <c r="FK24" s="11"/>
-      <c r="FL24" s="11"/>
-      <c r="FM24" s="11"/>
-      <c r="FN24" s="11"/>
-      <c r="FO24" s="11"/>
-      <c r="FP24" s="11"/>
-      <c r="FQ24" s="11"/>
-      <c r="FR24" s="11"/>
-      <c r="FS24" s="11"/>
-      <c r="FT24" s="11"/>
-      <c r="FU24" s="11"/>
-      <c r="FV24" s="11"/>
-      <c r="FW24" s="11"/>
-      <c r="FX24" s="11"/>
-      <c r="FY24" s="11"/>
-      <c r="FZ24" s="11"/>
-      <c r="GA24" s="11"/>
-      <c r="GB24" s="11"/>
-      <c r="GC24" s="11"/>
-      <c r="GD24" s="11"/>
-      <c r="GE24" s="11"/>
-      <c r="GF24" s="11"/>
-      <c r="GG24" s="11"/>
-      <c r="GH24" s="11"/>
-      <c r="GI24" s="11"/>
-      <c r="GJ24" s="11"/>
-      <c r="GK24" s="11"/>
-      <c r="GL24" s="11"/>
-      <c r="GM24" s="11"/>
-      <c r="GN24" s="11"/>
-      <c r="GO24" s="11"/>
-      <c r="GP24" s="11"/>
-      <c r="GQ24" s="11"/>
-      <c r="GR24" s="11"/>
-      <c r="GS24" s="11"/>
-      <c r="GT24" s="11"/>
-      <c r="GU24" s="11"/>
-      <c r="GV24" s="11"/>
-      <c r="GW24" s="11"/>
-      <c r="GX24" s="11"/>
-      <c r="GY24" s="11"/>
-      <c r="GZ24" s="11"/>
-      <c r="HA24" s="11"/>
-      <c r="HB24" s="11"/>
-      <c r="HC24" s="11"/>
-      <c r="HD24" s="11"/>
-      <c r="HE24" s="11"/>
-      <c r="HF24" s="11"/>
-      <c r="HG24" s="11"/>
-      <c r="HH24" s="11"/>
-      <c r="HI24" s="11"/>
-      <c r="HJ24" s="11"/>
-      <c r="HK24" s="11"/>
-      <c r="HL24" s="11"/>
-      <c r="HM24" s="11"/>
-      <c r="HN24" s="11"/>
-      <c r="HO24" s="11"/>
-      <c r="HP24" s="11"/>
-      <c r="HQ24" s="11"/>
-      <c r="HR24" s="11"/>
-      <c r="HS24" s="11"/>
-      <c r="HT24" s="11"/>
-      <c r="HU24" s="11"/>
-      <c r="HV24" s="11"/>
-      <c r="HW24" s="11"/>
-      <c r="HX24" s="11"/>
-      <c r="HY24" s="11"/>
-      <c r="HZ24" s="11"/>
-      <c r="IA24" s="11"/>
-      <c r="IB24" s="11"/>
-      <c r="IC24" s="11"/>
-      <c r="ID24" s="11"/>
-      <c r="IE24" s="11"/>
-      <c r="IF24" s="11"/>
-      <c r="IG24" s="11"/>
-      <c r="IH24" s="11"/>
-      <c r="II24" s="11"/>
-      <c r="IJ24" s="11"/>
-      <c r="IK24" s="11"/>
-      <c r="IL24" s="11"/>
-      <c r="IM24" s="11"/>
-      <c r="IN24" s="11"/>
-      <c r="IO24" s="11"/>
-      <c r="IP24" s="11"/>
-      <c r="IQ24" s="11"/>
-      <c r="IR24" s="11"/>
-      <c r="IS24" s="11"/>
-      <c r="IT24" s="11"/>
-      <c r="IU24" s="11"/>
-      <c r="IV24" s="11"/>
-      <c r="IW24" s="11"/>
-      <c r="IX24" s="11"/>
-      <c r="IY24" s="11"/>
-      <c r="IZ24" s="11"/>
-      <c r="JA24" s="11"/>
-      <c r="JB24" s="11"/>
-      <c r="JC24" s="11"/>
-      <c r="JD24" s="11"/>
-      <c r="JE24" s="11"/>
-      <c r="JF24" s="11"/>
-      <c r="JG24" s="11"/>
-      <c r="JH24" s="11"/>
-      <c r="JI24" s="11"/>
-      <c r="JJ24" s="11"/>
-      <c r="JK24" s="11"/>
-      <c r="JL24" s="11"/>
-      <c r="JM24" s="11"/>
-      <c r="JN24" s="11"/>
-      <c r="JO24" s="11"/>
-      <c r="JP24" s="11"/>
-      <c r="JQ24" s="11"/>
-      <c r="JR24" s="11"/>
-      <c r="JS24" s="11"/>
-      <c r="JT24" s="11"/>
-      <c r="JU24" s="11"/>
-      <c r="JV24" s="11"/>
-      <c r="JW24" s="11"/>
-      <c r="JX24" s="11"/>
-      <c r="JY24" s="11"/>
-      <c r="JZ24" s="11"/>
-      <c r="KA24" s="11"/>
-      <c r="KB24" s="11"/>
-      <c r="KC24" s="11"/>
-      <c r="KD24" s="11"/>
-      <c r="KE24" s="11"/>
-      <c r="KF24" s="11"/>
-      <c r="KG24" s="11"/>
-      <c r="KH24" s="11"/>
-      <c r="KI24" s="11"/>
-      <c r="KJ24" s="11"/>
-      <c r="KK24" s="11"/>
-      <c r="KL24" s="11"/>
-      <c r="KM24" s="11"/>
-      <c r="KN24" s="11"/>
-      <c r="KO24" s="11"/>
-      <c r="KP24" s="11"/>
-      <c r="KQ24" s="11"/>
-      <c r="KR24" s="11"/>
-      <c r="KS24" s="11"/>
-      <c r="KT24" s="11"/>
-      <c r="KU24" s="11"/>
-      <c r="KV24" s="11"/>
-      <c r="KW24" s="11"/>
-      <c r="KX24" s="11"/>
-      <c r="KY24" s="11"/>
-      <c r="KZ24" s="11"/>
-      <c r="LA24" s="11"/>
-      <c r="LB24" s="11"/>
-      <c r="LC24" s="11"/>
-      <c r="LD24" s="11"/>
-      <c r="LE24" s="11"/>
-      <c r="LF24" s="11"/>
-      <c r="LG24" s="11"/>
-      <c r="LH24" s="11"/>
-      <c r="LI24" s="11"/>
-      <c r="LJ24" s="11"/>
-      <c r="LK24" s="11"/>
-      <c r="LL24" s="11"/>
-      <c r="LM24" s="11"/>
-      <c r="LN24" s="11"/>
-      <c r="LO24" s="11"/>
-      <c r="LP24" s="11"/>
-      <c r="LQ24" s="11"/>
-      <c r="LR24" s="11"/>
-      <c r="LS24" s="11"/>
-      <c r="LT24" s="11"/>
-      <c r="LU24" s="11"/>
-      <c r="LV24" s="11"/>
-      <c r="LW24" s="11"/>
-      <c r="LX24" s="11"/>
-      <c r="LY24" s="11"/>
-      <c r="LZ24" s="11"/>
-      <c r="MA24" s="11"/>
-      <c r="MB24" s="11"/>
-      <c r="MC24" s="11"/>
-      <c r="MD24" s="11"/>
-      <c r="ME24" s="11"/>
-      <c r="MF24" s="11"/>
-      <c r="MG24" s="11"/>
-      <c r="MH24" s="11"/>
-      <c r="MI24" s="11"/>
-      <c r="MJ24" s="11"/>
-      <c r="MK24" s="11"/>
-      <c r="ML24" s="11"/>
-      <c r="MM24" s="11"/>
-      <c r="MN24" s="11"/>
-      <c r="MO24" s="11"/>
-      <c r="MP24" s="11"/>
-      <c r="MQ24" s="11"/>
-      <c r="MR24" s="11"/>
-      <c r="MS24" s="11"/>
-      <c r="MT24" s="11"/>
-      <c r="MU24" s="11"/>
-      <c r="MV24" s="11"/>
-      <c r="MW24" s="11"/>
-      <c r="MX24" s="11"/>
-      <c r="MY24" s="11"/>
-      <c r="MZ24" s="11"/>
-      <c r="NA24" s="11"/>
-      <c r="NB24" s="11"/>
-      <c r="NC24" s="11"/>
-      <c r="ND24" s="11"/>
-      <c r="NE24" s="11"/>
-      <c r="NF24" s="11"/>
-      <c r="NG24" s="11"/>
-      <c r="NH24" s="11"/>
-      <c r="NI24" s="11"/>
-      <c r="NJ24" s="11"/>
-      <c r="NK24" s="11"/>
-      <c r="NL24" s="11"/>
-      <c r="NM24" s="11"/>
-      <c r="NN24" s="11"/>
-      <c r="NO24" s="11"/>
-      <c r="NP24" s="11"/>
-      <c r="NQ24" s="11"/>
-      <c r="NR24" s="11"/>
-      <c r="NS24" s="11"/>
-      <c r="NT24" s="11"/>
-      <c r="NU24" s="11"/>
-      <c r="NV24" s="11"/>
-      <c r="NW24" s="11"/>
-      <c r="NX24" s="11"/>
-      <c r="NY24" s="11"/>
-      <c r="NZ24" s="11"/>
-      <c r="OA24" s="11"/>
-      <c r="OB24" s="11"/>
-      <c r="OC24" s="11"/>
-      <c r="OD24" s="11"/>
-      <c r="OE24" s="11"/>
-      <c r="OF24" s="11"/>
-      <c r="OG24" s="11"/>
-      <c r="OH24" s="11"/>
-      <c r="OI24" s="11"/>
-      <c r="OJ24" s="11"/>
-      <c r="OK24" s="11"/>
-      <c r="OL24" s="11"/>
-      <c r="OM24" s="11"/>
-      <c r="ON24" s="11"/>
-      <c r="OO24" s="11"/>
-      <c r="OP24" s="11"/>
-      <c r="OQ24" s="11"/>
-      <c r="OR24" s="11"/>
-      <c r="OS24" s="11"/>
-      <c r="OT24" s="11"/>
-      <c r="OU24" s="11"/>
-      <c r="OV24" s="11"/>
-      <c r="OW24" s="11"/>
-      <c r="OX24" s="11"/>
-      <c r="OY24" s="11"/>
-      <c r="OZ24" s="11"/>
-      <c r="PA24" s="11"/>
-      <c r="PB24" s="11"/>
-      <c r="PC24" s="11"/>
-      <c r="PD24" s="11"/>
-      <c r="PE24" s="11"/>
-      <c r="PF24" s="11"/>
-      <c r="PG24" s="11"/>
-      <c r="PH24" s="11"/>
-      <c r="PI24" s="11"/>
-      <c r="PJ24" s="11"/>
-      <c r="PK24" s="11"/>
-      <c r="PL24" s="11"/>
-      <c r="PM24" s="11"/>
-      <c r="PN24" s="11"/>
-      <c r="PO24" s="11"/>
-      <c r="PP24" s="11"/>
-      <c r="PQ24" s="11"/>
-      <c r="PR24" s="11"/>
-      <c r="PS24" s="11"/>
-      <c r="PT24" s="11"/>
-      <c r="PU24" s="11"/>
-      <c r="PV24" s="11"/>
-      <c r="PW24" s="11"/>
-      <c r="PX24" s="11"/>
-      <c r="PY24" s="11"/>
-      <c r="PZ24" s="11"/>
-      <c r="QA24" s="11"/>
-      <c r="QB24" s="11"/>
-      <c r="QC24" s="11"/>
-      <c r="QD24" s="11"/>
-      <c r="QE24" s="11"/>
-      <c r="QF24" s="11"/>
-      <c r="QG24" s="11"/>
-      <c r="QH24" s="11"/>
-      <c r="QI24" s="11"/>
-      <c r="QJ24" s="11"/>
-      <c r="QK24" s="11"/>
-      <c r="QL24" s="11"/>
-      <c r="QM24" s="11"/>
-      <c r="QN24" s="11"/>
-      <c r="QO24" s="11"/>
-      <c r="QP24" s="11"/>
-      <c r="QQ24" s="11"/>
-      <c r="QR24" s="11"/>
-      <c r="QS24" s="11"/>
-      <c r="QT24" s="11"/>
-      <c r="QU24" s="11"/>
-      <c r="QV24" s="11"/>
-      <c r="QW24" s="11"/>
-      <c r="QX24" s="11"/>
-      <c r="QY24" s="11"/>
-      <c r="QZ24" s="11"/>
-      <c r="RA24" s="11"/>
-      <c r="RB24" s="11"/>
-      <c r="RC24" s="11"/>
-      <c r="RD24" s="11"/>
-      <c r="RE24" s="11"/>
-      <c r="RF24" s="11"/>
-      <c r="RG24" s="11"/>
-      <c r="RH24" s="11"/>
-      <c r="RI24" s="11"/>
-      <c r="RJ24" s="11"/>
-      <c r="RK24" s="11"/>
-      <c r="RL24" s="11"/>
-      <c r="RM24" s="11"/>
-      <c r="RN24" s="11"/>
-      <c r="RO24" s="11"/>
-      <c r="RP24" s="11"/>
-      <c r="RQ24" s="11"/>
-      <c r="RR24" s="11"/>
-      <c r="RS24" s="11"/>
-      <c r="RT24" s="11"/>
-      <c r="RU24" s="11"/>
-      <c r="RV24" s="11"/>
-      <c r="RW24" s="11"/>
-      <c r="RX24" s="11"/>
-      <c r="RY24" s="11"/>
-      <c r="RZ24" s="11"/>
-      <c r="SA24" s="11"/>
-      <c r="SB24" s="11"/>
-      <c r="SC24" s="11"/>
-      <c r="SD24" s="11"/>
-      <c r="SE24" s="11"/>
-      <c r="SF24" s="11"/>
-      <c r="SG24" s="11"/>
-      <c r="SH24" s="11"/>
-      <c r="SI24" s="11"/>
-      <c r="SJ24" s="11"/>
-      <c r="SK24" s="11"/>
-      <c r="SL24" s="11"/>
-      <c r="SM24" s="11"/>
-      <c r="SN24" s="11"/>
-      <c r="SO24" s="11"/>
-      <c r="SP24" s="11"/>
-      <c r="SQ24" s="11"/>
-      <c r="SR24" s="11"/>
-      <c r="SS24" s="11"/>
-      <c r="ST24" s="11"/>
-      <c r="SU24" s="11"/>
-      <c r="SV24" s="11"/>
-      <c r="SW24" s="11"/>
-      <c r="SX24" s="11"/>
-      <c r="SY24" s="11"/>
-      <c r="SZ24" s="11"/>
-      <c r="TA24" s="11"/>
-      <c r="TB24" s="11"/>
-      <c r="TC24" s="11"/>
-      <c r="TD24" s="11"/>
-      <c r="TE24" s="11"/>
-      <c r="TF24" s="11"/>
-      <c r="TG24" s="11"/>
-      <c r="TH24" s="11"/>
-      <c r="TI24" s="11"/>
-      <c r="TJ24" s="11"/>
-      <c r="TK24" s="11"/>
-      <c r="TL24" s="11"/>
-      <c r="TM24" s="11"/>
-      <c r="TN24" s="11"/>
-      <c r="TO24" s="11"/>
-      <c r="TP24" s="11"/>
-      <c r="TQ24" s="11"/>
-      <c r="TR24" s="11"/>
-      <c r="TS24" s="11"/>
-      <c r="TT24" s="11"/>
-      <c r="TU24" s="11"/>
-      <c r="TV24" s="11"/>
-      <c r="TW24" s="11"/>
-      <c r="TX24" s="11"/>
-      <c r="TY24" s="11"/>
-      <c r="TZ24" s="11"/>
-      <c r="UA24" s="11"/>
-      <c r="UB24" s="11"/>
-      <c r="UC24" s="11"/>
-      <c r="UD24" s="11"/>
-      <c r="UE24" s="11"/>
-      <c r="UF24" s="11"/>
-      <c r="UG24" s="11"/>
-      <c r="UH24" s="11"/>
-      <c r="UI24" s="11"/>
-      <c r="UJ24" s="11"/>
-      <c r="UK24" s="11"/>
-      <c r="UL24" s="11"/>
-      <c r="UM24" s="11"/>
-      <c r="UN24" s="11"/>
-      <c r="UO24" s="11"/>
-      <c r="UP24" s="11"/>
-      <c r="UQ24" s="11"/>
-      <c r="UR24" s="11"/>
-      <c r="US24" s="11"/>
-      <c r="UT24" s="11"/>
-      <c r="UU24" s="11"/>
-      <c r="UV24" s="11"/>
-      <c r="UW24" s="11"/>
-      <c r="UX24" s="11"/>
-      <c r="UY24" s="11"/>
-      <c r="UZ24" s="11"/>
-      <c r="VA24" s="11"/>
-      <c r="VB24" s="11"/>
-      <c r="VC24" s="11"/>
-      <c r="VD24" s="11"/>
-      <c r="VE24" s="11"/>
-      <c r="VF24" s="11"/>
-      <c r="VG24" s="11"/>
-      <c r="VH24" s="11"/>
-      <c r="VI24" s="11"/>
-      <c r="VJ24" s="11"/>
-      <c r="VK24" s="11"/>
-      <c r="VL24" s="11"/>
-      <c r="VM24" s="11"/>
-      <c r="VN24" s="11"/>
-      <c r="VO24" s="11"/>
-      <c r="VP24" s="11"/>
-      <c r="VQ24" s="11"/>
-      <c r="VR24" s="11"/>
-      <c r="VS24" s="11"/>
-      <c r="VT24" s="11"/>
-      <c r="VU24" s="11"/>
-      <c r="VV24" s="11"/>
-      <c r="VW24" s="11"/>
-      <c r="VX24" s="11"/>
-      <c r="VY24" s="11"/>
-      <c r="VZ24" s="11"/>
-      <c r="WA24" s="11"/>
-      <c r="WB24" s="11"/>
-      <c r="WC24" s="11"/>
-      <c r="WD24" s="11"/>
-      <c r="WE24" s="11"/>
-      <c r="WF24" s="11"/>
-      <c r="WG24" s="11"/>
-      <c r="WH24" s="11"/>
-      <c r="WI24" s="11"/>
-      <c r="WJ24" s="11"/>
-      <c r="WK24" s="11"/>
-      <c r="WL24" s="11"/>
-      <c r="WM24" s="11"/>
-      <c r="WN24" s="11"/>
-      <c r="WO24" s="11"/>
-      <c r="WP24" s="11"/>
-      <c r="WQ24" s="11"/>
-      <c r="WR24" s="11"/>
-      <c r="WS24" s="11"/>
-      <c r="WT24" s="11"/>
-      <c r="WU24" s="11"/>
-      <c r="WV24" s="11"/>
-      <c r="WW24" s="11"/>
-      <c r="WX24" s="11"/>
-      <c r="WY24" s="11"/>
-      <c r="WZ24" s="11"/>
-      <c r="XA24" s="11"/>
-      <c r="XB24" s="11"/>
-      <c r="XC24" s="11"/>
-      <c r="XD24" s="11"/>
-      <c r="XE24" s="11"/>
-      <c r="XF24" s="11"/>
-      <c r="XG24" s="11"/>
-      <c r="XH24" s="11"/>
-      <c r="XI24" s="11"/>
-      <c r="XJ24" s="11"/>
-      <c r="XK24" s="11"/>
-      <c r="XL24" s="11"/>
-      <c r="XM24" s="11"/>
-      <c r="XN24" s="11"/>
-      <c r="XO24" s="11"/>
-      <c r="XP24" s="11"/>
-      <c r="XQ24" s="11"/>
-      <c r="XR24" s="11"/>
-      <c r="XS24" s="11"/>
-      <c r="XT24" s="11"/>
-      <c r="XU24" s="11"/>
-      <c r="XV24" s="11"/>
-      <c r="XW24" s="11"/>
-      <c r="XX24" s="11"/>
-      <c r="XY24" s="11"/>
-      <c r="XZ24" s="11"/>
-      <c r="YA24" s="11"/>
-      <c r="YB24" s="11"/>
-      <c r="YC24" s="11"/>
-      <c r="YD24" s="11"/>
-      <c r="YE24" s="11"/>
-      <c r="YF24" s="11"/>
-      <c r="YG24" s="11"/>
-      <c r="YH24" s="11"/>
-      <c r="YI24" s="11"/>
-      <c r="YJ24" s="11"/>
-      <c r="YK24" s="11"/>
-      <c r="YL24" s="11"/>
-      <c r="YM24" s="11"/>
-      <c r="YN24" s="11"/>
-      <c r="YO24" s="11"/>
-      <c r="YP24" s="11"/>
-      <c r="YQ24" s="11"/>
-      <c r="YR24" s="11"/>
-      <c r="YS24" s="11"/>
-      <c r="YT24" s="11"/>
-      <c r="YU24" s="11"/>
-      <c r="YV24" s="11"/>
-      <c r="YW24" s="11"/>
-      <c r="YX24" s="11"/>
-      <c r="YY24" s="11"/>
-      <c r="YZ24" s="11"/>
-      <c r="ZA24" s="11"/>
-      <c r="ZB24" s="11"/>
-      <c r="ZC24" s="11"/>
-      <c r="ZD24" s="11"/>
-      <c r="ZE24" s="11"/>
-      <c r="ZF24" s="11"/>
-      <c r="ZG24" s="11"/>
-      <c r="ZH24" s="11"/>
-      <c r="ZI24" s="11"/>
-      <c r="ZJ24" s="11"/>
-      <c r="ZK24" s="11"/>
-      <c r="ZL24" s="11"/>
-      <c r="ZM24" s="11"/>
-      <c r="ZN24" s="11"/>
-      <c r="ZO24" s="11"/>
-      <c r="ZP24" s="11"/>
-      <c r="ZQ24" s="11"/>
-      <c r="ZR24" s="11"/>
-      <c r="ZS24" s="11"/>
-      <c r="ZT24" s="11"/>
-      <c r="ZU24" s="11"/>
-      <c r="ZV24" s="11"/>
-      <c r="ZW24" s="11"/>
-      <c r="ZX24" s="11"/>
-      <c r="ZY24" s="11"/>
-      <c r="ZZ24" s="11"/>
-      <c r="AAA24" s="11"/>
-      <c r="AAB24" s="11"/>
-      <c r="AAC24" s="11"/>
-      <c r="AAD24" s="11"/>
-      <c r="AAE24" s="11"/>
-      <c r="AAF24" s="11"/>
-      <c r="AAG24" s="11"/>
-      <c r="AAH24" s="11"/>
-      <c r="AAI24" s="11"/>
-      <c r="AAJ24" s="11"/>
-      <c r="AAK24" s="11"/>
-      <c r="AAL24" s="11"/>
-      <c r="AAM24" s="11"/>
-      <c r="AAN24" s="11"/>
-      <c r="AAO24" s="11"/>
-      <c r="AAP24" s="11"/>
-      <c r="AAQ24" s="11"/>
-      <c r="AAR24" s="11"/>
-      <c r="AAS24" s="11"/>
-      <c r="AAT24" s="11"/>
-      <c r="AAU24" s="11"/>
-      <c r="AAV24" s="11"/>
-      <c r="AAW24" s="11"/>
-      <c r="AAX24" s="11"/>
-      <c r="AAY24" s="11"/>
-      <c r="AAZ24" s="11"/>
-      <c r="ABA24" s="11"/>
-      <c r="ABB24" s="11"/>
-      <c r="ABC24" s="11"/>
-      <c r="ABD24" s="11"/>
-      <c r="ABE24" s="11"/>
-      <c r="ABF24" s="11"/>
-      <c r="ABG24" s="11"/>
-      <c r="ABH24" s="11"/>
-      <c r="ABI24" s="11"/>
-      <c r="ABJ24" s="11"/>
-      <c r="ABK24" s="11"/>
-      <c r="ABL24" s="11"/>
-      <c r="ABM24" s="11"/>
-      <c r="ABN24" s="11"/>
-      <c r="ABO24" s="11"/>
-      <c r="ABP24" s="11"/>
-      <c r="ABQ24" s="11"/>
-      <c r="ABR24" s="11"/>
-      <c r="ABS24" s="11"/>
-      <c r="ABT24" s="11"/>
-      <c r="ABU24" s="11"/>
-      <c r="ABV24" s="11"/>
-      <c r="ABW24" s="11"/>
-      <c r="ABX24" s="11"/>
-      <c r="ABY24" s="11"/>
-      <c r="ABZ24" s="11"/>
-      <c r="ACA24" s="11"/>
-      <c r="ACB24" s="11"/>
-      <c r="ACC24" s="11"/>
-      <c r="ACD24" s="11"/>
-      <c r="ACE24" s="11"/>
-      <c r="ACF24" s="11"/>
-      <c r="ACG24" s="11"/>
-      <c r="ACH24" s="11"/>
-      <c r="ACI24" s="11"/>
-      <c r="ACJ24" s="11"/>
-      <c r="ACK24" s="11"/>
-      <c r="ACL24" s="11"/>
-      <c r="ACM24" s="11"/>
-      <c r="ACN24" s="11"/>
-      <c r="ACO24" s="11"/>
-      <c r="ACP24" s="11"/>
-      <c r="ACQ24" s="11"/>
-      <c r="ACR24" s="11"/>
-      <c r="ACS24" s="11"/>
-      <c r="ACT24" s="11"/>
-      <c r="ACU24" s="11"/>
-      <c r="ACV24" s="11"/>
-      <c r="ACW24" s="11"/>
-      <c r="ACX24" s="11"/>
-      <c r="ACY24" s="11"/>
-      <c r="ACZ24" s="11"/>
-      <c r="ADA24" s="11"/>
-      <c r="ADB24" s="11"/>
-      <c r="ADC24" s="11"/>
-      <c r="ADD24" s="11"/>
-      <c r="ADE24" s="11"/>
-      <c r="ADF24" s="11"/>
-      <c r="ADG24" s="11"/>
-      <c r="ADH24" s="11"/>
-      <c r="ADI24" s="11"/>
-      <c r="ADJ24" s="11"/>
-      <c r="ADK24" s="11"/>
-      <c r="ADL24" s="11"/>
-      <c r="ADM24" s="11"/>
-      <c r="ADN24" s="11"/>
-      <c r="ADO24" s="11"/>
-      <c r="ADP24" s="11"/>
-      <c r="ADQ24" s="11"/>
-      <c r="ADR24" s="11"/>
-      <c r="ADS24" s="11"/>
-      <c r="ADT24" s="11"/>
-      <c r="ADU24" s="11"/>
-      <c r="ADV24" s="11"/>
-      <c r="ADW24" s="11"/>
-      <c r="ADX24" s="11"/>
-      <c r="ADY24" s="11"/>
-      <c r="ADZ24" s="11"/>
-      <c r="AEA24" s="11"/>
-      <c r="AEB24" s="11"/>
-      <c r="AEC24" s="11"/>
-      <c r="AED24" s="11"/>
-      <c r="AEE24" s="11"/>
-      <c r="AEF24" s="11"/>
-      <c r="AEG24" s="11"/>
-      <c r="AEH24" s="11"/>
-      <c r="AEI24" s="11"/>
-      <c r="AEJ24" s="11"/>
-      <c r="AEK24" s="11"/>
-      <c r="AEL24" s="11"/>
-      <c r="AEM24" s="11"/>
-      <c r="AEN24" s="11"/>
-      <c r="AEO24" s="11"/>
-      <c r="AEP24" s="11"/>
-      <c r="AEQ24" s="11"/>
-      <c r="AER24" s="11"/>
-      <c r="AES24" s="11"/>
-      <c r="AET24" s="11"/>
-      <c r="AEU24" s="11"/>
-      <c r="AEV24" s="11"/>
-      <c r="AEW24" s="11"/>
-      <c r="AEX24" s="11"/>
-      <c r="AEY24" s="11"/>
-      <c r="AEZ24" s="11"/>
-      <c r="AFA24" s="11"/>
-      <c r="AFB24" s="11"/>
-      <c r="AFC24" s="11"/>
-      <c r="AFD24" s="11"/>
-      <c r="AFE24" s="11"/>
-      <c r="AFF24" s="11"/>
-      <c r="AFG24" s="11"/>
-      <c r="AFH24" s="11"/>
-      <c r="AFI24" s="11"/>
-      <c r="AFJ24" s="11"/>
-      <c r="AFK24" s="11"/>
-      <c r="AFL24" s="11"/>
-      <c r="AFM24" s="11"/>
-      <c r="AFN24" s="11"/>
-      <c r="AFO24" s="11"/>
-      <c r="AFP24" s="11"/>
-      <c r="AFQ24" s="11"/>
-      <c r="AFR24" s="11"/>
-      <c r="AFS24" s="11"/>
-      <c r="AFT24" s="11"/>
-      <c r="AFU24" s="11"/>
-      <c r="AFV24" s="11"/>
-      <c r="AFW24" s="11"/>
-      <c r="AFX24" s="11"/>
-      <c r="AFY24" s="11"/>
-      <c r="AFZ24" s="11"/>
-      <c r="AGA24" s="11"/>
-      <c r="AGB24" s="11"/>
-      <c r="AGC24" s="11"/>
-      <c r="AGD24" s="11"/>
-      <c r="AGE24" s="11"/>
-      <c r="AGF24" s="11"/>
-      <c r="AGG24" s="11"/>
-      <c r="AGH24" s="11"/>
-      <c r="AGI24" s="11"/>
-      <c r="AGJ24" s="11"/>
-      <c r="AGK24" s="11"/>
-      <c r="AGL24" s="11"/>
-      <c r="AGM24" s="11"/>
-      <c r="AGN24" s="11"/>
-      <c r="AGO24" s="11"/>
-      <c r="AGP24" s="11"/>
-      <c r="AGQ24" s="11"/>
-      <c r="AGR24" s="11"/>
-      <c r="AGS24" s="11"/>
-      <c r="AGT24" s="11"/>
-      <c r="AGU24" s="11"/>
-      <c r="AGV24" s="11"/>
-      <c r="AGW24" s="11"/>
-      <c r="AGX24" s="11"/>
-      <c r="AGY24" s="11"/>
-      <c r="AGZ24" s="11"/>
-      <c r="AHA24" s="11"/>
-      <c r="AHB24" s="11"/>
-      <c r="AHC24" s="11"/>
-      <c r="AHD24" s="11"/>
-      <c r="AHE24" s="11"/>
-      <c r="AHF24" s="11"/>
-      <c r="AHG24" s="11"/>
-      <c r="AHH24" s="11"/>
-      <c r="AHI24" s="11"/>
-      <c r="AHJ24" s="11"/>
-      <c r="AHK24" s="11"/>
-      <c r="AHL24" s="11"/>
-      <c r="AHM24" s="11"/>
-      <c r="AHN24" s="11"/>
-      <c r="AHO24" s="11"/>
-      <c r="AHP24" s="11"/>
-      <c r="AHQ24" s="11"/>
-      <c r="AHR24" s="11"/>
-      <c r="AHS24" s="11"/>
-      <c r="AHT24" s="11"/>
-      <c r="AHU24" s="11"/>
-      <c r="AHV24" s="11"/>
-      <c r="AHW24" s="11"/>
-      <c r="AHX24" s="11"/>
-      <c r="AHY24" s="11"/>
-      <c r="AHZ24" s="11"/>
-      <c r="AIA24" s="11"/>
-      <c r="AIB24" s="11"/>
-      <c r="AIC24" s="11"/>
-      <c r="AID24" s="11"/>
-      <c r="AIE24" s="11"/>
-      <c r="AIF24" s="11"/>
-      <c r="AIG24" s="11"/>
-      <c r="AIH24" s="11"/>
-      <c r="AII24" s="11"/>
-      <c r="AIJ24" s="11"/>
-      <c r="AIK24" s="11"/>
-      <c r="AIL24" s="11"/>
-      <c r="AIM24" s="11"/>
-      <c r="AIN24" s="11"/>
-      <c r="AIO24" s="11"/>
-      <c r="AIP24" s="11"/>
-      <c r="AIQ24" s="11"/>
-      <c r="AIR24" s="11"/>
-      <c r="AIS24" s="11"/>
-      <c r="AIT24" s="11"/>
-      <c r="AIU24" s="11"/>
-      <c r="AIV24" s="11"/>
-      <c r="AIW24" s="11"/>
-      <c r="AIX24" s="11"/>
-      <c r="AIY24" s="11"/>
-      <c r="AIZ24" s="11"/>
-      <c r="AJA24" s="11"/>
-      <c r="AJB24" s="11"/>
-      <c r="AJC24" s="11"/>
-      <c r="AJD24" s="11"/>
-      <c r="AJE24" s="11"/>
-      <c r="AJF24" s="11"/>
-      <c r="AJG24" s="11"/>
-      <c r="AJH24" s="11"/>
-      <c r="AJI24" s="11"/>
-      <c r="AJJ24" s="11"/>
-      <c r="AJK24" s="11"/>
-      <c r="AJL24" s="11"/>
-      <c r="AJM24" s="11"/>
-      <c r="AJN24" s="11"/>
-      <c r="AJO24" s="11"/>
-      <c r="AJP24" s="11"/>
-      <c r="AJQ24" s="11"/>
-      <c r="AJR24" s="11"/>
-      <c r="AJS24" s="11"/>
-      <c r="AJT24" s="11"/>
-      <c r="AJU24" s="11"/>
-      <c r="AJV24" s="11"/>
-      <c r="AJW24" s="11"/>
-      <c r="AJX24" s="11"/>
-      <c r="AJY24" s="11"/>
-      <c r="AJZ24" s="11"/>
-      <c r="AKA24" s="11"/>
-      <c r="AKB24" s="11"/>
-      <c r="AKC24" s="11"/>
-      <c r="AKD24" s="11"/>
-      <c r="AKE24" s="11"/>
-      <c r="AKF24" s="11"/>
-      <c r="AKG24" s="11"/>
-      <c r="AKH24" s="11"/>
-      <c r="AKI24" s="11"/>
-      <c r="AKJ24" s="11"/>
-      <c r="AKK24" s="11"/>
-      <c r="AKL24" s="11"/>
-      <c r="AKM24" s="11"/>
-      <c r="AKN24" s="11"/>
-      <c r="AKO24" s="11"/>
-      <c r="AKP24" s="11"/>
-      <c r="AKQ24" s="11"/>
-      <c r="AKR24" s="11"/>
-      <c r="AKS24" s="11"/>
-      <c r="AKT24" s="11"/>
-      <c r="AKU24" s="11"/>
-      <c r="AKV24" s="11"/>
-      <c r="AKW24" s="11"/>
-      <c r="AKX24" s="11"/>
-      <c r="AKY24" s="11"/>
-      <c r="AKZ24" s="11"/>
-      <c r="ALA24" s="11"/>
-      <c r="ALB24" s="11"/>
-      <c r="ALC24" s="11"/>
-      <c r="ALD24" s="11"/>
-      <c r="ALE24" s="11"/>
-      <c r="ALF24" s="11"/>
-      <c r="ALG24" s="11"/>
-      <c r="ALH24" s="11"/>
-      <c r="ALI24" s="11"/>
-      <c r="ALJ24" s="11"/>
-      <c r="ALK24" s="11"/>
-      <c r="ALL24" s="11"/>
-      <c r="ALM24" s="11"/>
-      <c r="ALN24" s="11"/>
-      <c r="ALO24" s="11"/>
-      <c r="ALP24" s="11"/>
-      <c r="ALQ24" s="11"/>
-      <c r="ALR24" s="11"/>
-      <c r="ALS24" s="11"/>
-      <c r="ALT24" s="11"/>
-      <c r="ALU24" s="11"/>
-      <c r="ALV24" s="11"/>
-      <c r="ALW24" s="11"/>
-      <c r="ALX24" s="11"/>
-      <c r="ALY24" s="11"/>
-      <c r="ALZ24" s="11"/>
-      <c r="AMA24" s="11"/>
-      <c r="AMB24" s="11"/>
-      <c r="AMC24" s="11"/>
-      <c r="AMD24" s="11"/>
-      <c r="AME24" s="11"/>
-      <c r="AMF24" s="11"/>
-      <c r="AMG24" s="11"/>
-      <c r="AMH24" s="11"/>
-      <c r="AMI24" s="11"/>
-      <c r="AMJ24" s="11"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F1:G1"/>

--- a/BaoCaoCaNhan/Weekly_Report_Quan.xlsx
+++ b/BaoCaoCaNhan/Weekly_Report_Quan.xlsx
@@ -264,7 +264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="45">
   <si>
     <t>Project</t>
   </si>
@@ -396,6 +396,9 @@
   </si>
   <si>
     <t>24/9/2012</t>
+  </si>
+  <si>
+    <t>Viết SRS phần non-function</t>
   </si>
 </sst>
 </file>
@@ -3112,7 +3115,7 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5322,11 +5325,15 @@
       <c r="C6" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="9"/>
+      <c r="D6" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="E6" s="9">
         <v>8</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="9">
+        <v>2</v>
+      </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -6348,11 +6355,21 @@
     </row>
     <row r="7" spans="1:1024" s="12" customFormat="1">
       <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
+      <c r="B7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1</v>
+      </c>
+      <c r="F7" s="9">
+        <v>1</v>
+      </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>

--- a/BaoCaoCaNhan/Weekly_Report_Quan.xlsx
+++ b/BaoCaoCaNhan/Weekly_Report_Quan.xlsx
@@ -264,7 +264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="49">
   <si>
     <t>Project</t>
   </si>
@@ -399,6 +399,18 @@
   </si>
   <si>
     <t>Viết SRS phần non-function</t>
+  </si>
+  <si>
+    <t>Viết SDD các phần chức năng như SRS</t>
+  </si>
+  <si>
+    <t>1 phần SDD</t>
+  </si>
+  <si>
+    <t>Viết SDD Các phần chung</t>
+  </si>
+  <si>
+    <t>1 Phần SDD</t>
   </si>
 </sst>
 </file>
@@ -544,7 +556,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -589,6 +601,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3115,7 +3130,7 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7389,12 +7404,20 @@
       <c r="AMI7" s="11"/>
       <c r="AMJ7" s="11"/>
     </row>
-    <row r="8" spans="1:1024" s="12" customFormat="1">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
+    <row r="8" spans="1:1024" s="12" customFormat="1" ht="28.5">
+      <c r="A8" s="15">
+        <v>40918</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="E8" s="9">
+        <v>6</v>
+      </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -8417,10 +8440,16 @@
     </row>
     <row r="9" spans="1:1024" s="12" customFormat="1">
       <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
+      <c r="B9" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="E9" s="9">
+        <v>2</v>
+      </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>

--- a/BaoCaoCaNhan/Weekly_Report_Quan.xlsx
+++ b/BaoCaoCaNhan/Weekly_Report_Quan.xlsx
@@ -264,7 +264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="51">
   <si>
     <t>Project</t>
   </si>
@@ -401,16 +401,22 @@
     <t>Viết SRS phần non-function</t>
   </si>
   <si>
-    <t>Viết SDD các phần chức năng như SRS</t>
-  </si>
-  <si>
     <t>1 phần SDD</t>
   </si>
   <si>
-    <t>Viết SDD Các phần chung</t>
+    <t>1 Phần SDD</t>
   </si>
   <si>
-    <t>1 Phần SDD</t>
+    <t>Viết SDD 1 phần</t>
+  </si>
+  <si>
+    <t>Viết SDD Các phần chung và phân chia các phần cho các bạn</t>
+  </si>
+  <si>
+    <t>xong</t>
+  </si>
+  <si>
+    <t>đã xong</t>
   </si>
 </sst>
 </file>
@@ -599,11 +605,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3130,7 +3136,7 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3167,8 +3173,8 @@
         <v>33</v>
       </c>
       <c r="E1" s="1"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
       <c r="P1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3274,7 +3280,9 @@
         <v>3</v>
       </c>
       <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
+      <c r="H4" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
@@ -7404,21 +7412,25 @@
       <c r="AMI7" s="11"/>
       <c r="AMJ7" s="11"/>
     </row>
-    <row r="8" spans="1:1024" s="12" customFormat="1" ht="28.5">
-      <c r="A8" s="15">
+    <row r="8" spans="1:1024" s="12" customFormat="1">
+      <c r="A8" s="14">
         <v>40918</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>46</v>
+      <c r="D8" s="9" t="s">
+        <v>49</v>
       </c>
-      <c r="D8" s="9"/>
       <c r="E8" s="9">
         <v>6</v>
       </c>
-      <c r="F8" s="9"/>
+      <c r="F8" s="9">
+        <v>3</v>
+      </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
@@ -8438,19 +8450,23 @@
       <c r="AMI8" s="11"/>
       <c r="AMJ8" s="11"/>
     </row>
-    <row r="9" spans="1:1024" s="12" customFormat="1">
+    <row r="9" spans="1:1024" s="12" customFormat="1" ht="28.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
-      <c r="D9" s="9"/>
+      <c r="D9" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="E9" s="9">
         <v>2</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="9">
+        <v>2</v>
+      </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
@@ -23886,8 +23902,8 @@
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
       <c r="P1" s="4" t="s">
         <v>3</v>
       </c>

--- a/BaoCaoCaNhan/Weekly_Report_Quan.xlsx
+++ b/BaoCaoCaNhan/Weekly_Report_Quan.xlsx
@@ -264,7 +264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
   <si>
     <t>Project</t>
   </si>
@@ -417,6 +417,15 @@
   </si>
   <si>
     <t>đã xong</t>
+  </si>
+  <si>
+    <t>24/10/2012</t>
+  </si>
+  <si>
+    <t>Hoàn chỉnh SDD</t>
+  </si>
+  <si>
+    <t>SDD final</t>
   </si>
 </sst>
 </file>
@@ -3136,7 +3145,7 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9487,11 +9496,19 @@
       <c r="AMJ9" s="11"/>
     </row>
     <row r="10" spans="1:1024" s="12" customFormat="1">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
+      <c r="A10" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="E10" s="9">
+        <v>3</v>
+      </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>

--- a/BaoCaoCaNhan/Weekly_Report_Quan.xlsx
+++ b/BaoCaoCaNhan/Weekly_Report_Quan.xlsx
@@ -264,7 +264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="56">
   <si>
     <t>Project</t>
   </si>
@@ -380,9 +380,6 @@
     <t>Viết SRS cho các function của cá nhân (bao gồm usecase và requirements của các chức năng: FAQ, Rule, Tìm kiếm sách, đăng ký mượn sách và hủy mượn sách)</t>
   </si>
   <si>
-    <t>90%, còn phải bổ sung các phần: Bảng viết tắt, Non-fuction requirements và detail non-function requirements</t>
-  </si>
-  <si>
     <t>1 phần SRS</t>
   </si>
   <si>
@@ -426,6 +423,15 @@
   </si>
   <si>
     <t>SDD final</t>
+  </si>
+  <si>
+    <t>Hiện thực module search</t>
+  </si>
+  <si>
+    <t>29/10/2012</t>
+  </si>
+  <si>
+    <t>module search</t>
   </si>
 </sst>
 </file>
@@ -3145,7 +3151,7 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3269,7 +3275,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:1024" s="12" customFormat="1" ht="71.25">
+    <row r="4" spans="1:1024" s="12" customFormat="1" ht="57">
       <c r="A4" s="8" t="s">
         <v>34</v>
       </c>
@@ -3277,10 +3283,10 @@
         <v>36</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E4" s="9">
         <v>3</v>
@@ -3290,7 +3296,7 @@
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -4317,10 +4323,10 @@
         <v>37</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" s="9">
         <v>4</v>
@@ -5349,16 +5355,16 @@
     </row>
     <row r="6" spans="1:1024" s="12" customFormat="1">
       <c r="A6" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>42</v>
-      </c>
       <c r="D6" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" s="9">
         <v>8</v>
@@ -6388,13 +6394,13 @@
     <row r="7" spans="1:1024" s="12" customFormat="1">
       <c r="A7" s="9"/>
       <c r="B7" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" s="9">
         <v>1</v>
@@ -7426,13 +7432,13 @@
         <v>40918</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" s="9">
         <v>6</v>
@@ -8462,13 +8468,13 @@
     <row r="9" spans="1:1024" s="12" customFormat="1" ht="28.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9" s="9">
         <v>2</v>
@@ -9497,19 +9503,23 @@
     </row>
     <row r="10" spans="1:1024" s="12" customFormat="1">
       <c r="A10" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="C10" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>53</v>
+      <c r="D10" s="9" t="s">
+        <v>48</v>
       </c>
-      <c r="D10" s="9"/>
       <c r="E10" s="9">
         <v>3</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="9">
+        <v>1</v>
+      </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -10530,11 +10540,19 @@
       <c r="AMJ10" s="11"/>
     </row>
     <row r="11" spans="1:1024" s="12" customFormat="1">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
+      <c r="A11" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
+      <c r="E11" s="9">
+        <v>8</v>
+      </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>

--- a/BaoCaoCaNhan/Weekly_Report_Quan.xlsx
+++ b/BaoCaoCaNhan/Weekly_Report_Quan.xlsx
@@ -264,7 +264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="60">
   <si>
     <t>Project</t>
   </si>
@@ -428,10 +428,22 @@
     <t>Hiện thực module search</t>
   </si>
   <si>
-    <t>29/10/2012</t>
+    <t>module search</t>
   </si>
   <si>
-    <t>module search</t>
+    <t>27/11/2012</t>
+  </si>
+  <si>
+    <t>chưa test</t>
+  </si>
+  <si>
+    <t>28/11/2012</t>
+  </si>
+  <si>
+    <t>Page About</t>
+  </si>
+  <si>
+    <t>Page Contact</t>
   </si>
 </sst>
 </file>
@@ -3151,7 +3163,7 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10541,19 +10553,23 @@
     </row>
     <row r="11" spans="1:1024" s="12" customFormat="1">
       <c r="A11" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>53</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
-      <c r="D11" s="9"/>
+      <c r="D11" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="E11" s="9">
         <v>8</v>
       </c>
-      <c r="F11" s="9"/>
+      <c r="F11" s="9">
+        <v>3</v>
+      </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -11574,12 +11590,24 @@
       <c r="AMJ11" s="11"/>
     </row>
     <row r="12" spans="1:1024" s="12" customFormat="1">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="A12" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="9">
+        <v>2</v>
+      </c>
+      <c r="F12" s="9">
+        <v>2</v>
+      </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
@@ -12600,12 +12628,24 @@
       <c r="AMJ12" s="11"/>
     </row>
     <row r="13" spans="1:1024" s="12" customFormat="1">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
+      <c r="A13" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="9">
+        <v>2</v>
+      </c>
+      <c r="F13" s="9">
+        <v>2</v>
+      </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>

--- a/BaoCaoCaNhan/Weekly_Report_Quan.xlsx
+++ b/BaoCaoCaNhan/Weekly_Report_Quan.xlsx
@@ -264,7 +264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="63">
   <si>
     <t>Project</t>
   </si>
@@ -444,6 +444,15 @@
   </si>
   <si>
     <t>Page Contact</t>
+  </si>
+  <si>
+    <t>Page FAQ, Rule</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>Page search</t>
   </si>
 </sst>
 </file>
@@ -3163,7 +3172,7 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -13666,12 +13675,24 @@
       <c r="AMJ13" s="11"/>
     </row>
     <row r="14" spans="1:1024" s="12" customFormat="1">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+      <c r="A14" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="9">
+        <v>2</v>
+      </c>
+      <c r="F14" s="9">
+        <v>4</v>
+      </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
@@ -14692,11 +14713,21 @@
       <c r="AMJ14" s="11"/>
     </row>
     <row r="15" spans="1:1024" s="12" customFormat="1">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
+      <c r="A15" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E15" s="9">
+        <v>8</v>
+      </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>

--- a/BaoCaoCaNhan/Weekly_Report_Quan.xlsx
+++ b/BaoCaoCaNhan/Weekly_Report_Quan.xlsx
@@ -264,7 +264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="65">
   <si>
     <t>Project</t>
   </si>
@@ -453,6 +453,12 @@
   </si>
   <si>
     <t>Page search</t>
+  </si>
+  <si>
+    <t>Viết 1 phần Final Report</t>
+  </si>
+  <si>
+    <t>final report</t>
   </si>
 </sst>
 </file>
@@ -3172,7 +3178,7 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -15749,12 +15755,24 @@
       <c r="AMJ15" s="11"/>
     </row>
     <row r="16" spans="1:1024" s="12" customFormat="1">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
+      <c r="A16" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="E16" s="9">
+        <v>1</v>
+      </c>
+      <c r="F16" s="9">
+        <v>1</v>
+      </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>

--- a/BaoCaoCaNhan/Weekly_Report_Quan.xlsx
+++ b/BaoCaoCaNhan/Weekly_Report_Quan.xlsx
@@ -264,7 +264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="70">
   <si>
     <t>Project</t>
   </si>
@@ -459,6 +459,21 @@
   </si>
   <si>
     <t>final report</t>
+  </si>
+  <si>
+    <t>30/11/2012</t>
+  </si>
+  <si>
+    <t>implement mượn sách</t>
+  </si>
+  <si>
+    <t>module mượn sách</t>
+  </si>
+  <si>
+    <t>implement huỷ mượn sách</t>
+  </si>
+  <si>
+    <t>module huỷ mượn</t>
   </si>
 </sst>
 </file>
@@ -3177,8 +3192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -16793,12 +16808,24 @@
       <c r="AMJ16" s="11"/>
     </row>
     <row r="17" spans="1:1024" s="12" customFormat="1">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
+      <c r="A17" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="9">
+        <v>4</v>
+      </c>
+      <c r="F17" s="9">
+        <v>4</v>
+      </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
@@ -17819,12 +17846,24 @@
       <c r="AMJ17" s="11"/>
     </row>
     <row r="18" spans="1:1024" s="12" customFormat="1">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
+      <c r="A18" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="9">
+        <v>2</v>
+      </c>
+      <c r="F18" s="9">
+        <v>2</v>
+      </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>

--- a/BaoCaoCaNhan/Weekly_Report_Quan.xlsx
+++ b/BaoCaoCaNhan/Weekly_Report_Quan.xlsx
@@ -264,7 +264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="72">
   <si>
     <t>Project</t>
   </si>
@@ -474,6 +474,12 @@
   </si>
   <si>
     <t>module huỷ mượn</t>
+  </si>
+  <si>
+    <t>implement history user</t>
+  </si>
+  <si>
+    <t>module history user</t>
   </si>
 </sst>
 </file>
@@ -3193,7 +3199,7 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -18884,12 +18890,24 @@
       <c r="AMJ18" s="11"/>
     </row>
     <row r="19" spans="1:1024" s="12" customFormat="1">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
+      <c r="A19" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="9">
+        <v>4</v>
+      </c>
+      <c r="F19" s="9">
+        <v>3</v>
+      </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>

--- a/BaoCaoCaNhan/Weekly_Report_Quan.xlsx
+++ b/BaoCaoCaNhan/Weekly_Report_Quan.xlsx
@@ -264,7 +264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="74">
   <si>
     <t>Project</t>
   </si>
@@ -480,6 +480,12 @@
   </si>
   <si>
     <t>module history user</t>
+  </si>
+  <si>
+    <t>layout for admin page</t>
+  </si>
+  <si>
+    <t>layout admin</t>
   </si>
 </sst>
 </file>
@@ -3198,8 +3204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -19928,12 +19934,24 @@
       <c r="AMJ19" s="11"/>
     </row>
     <row r="20" spans="1:1024" s="12" customFormat="1">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
+      <c r="A20" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="9">
+        <v>2</v>
+      </c>
+      <c r="F20" s="9">
+        <v>3</v>
+      </c>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>

--- a/BaoCaoCaNhan/Weekly_Report_Quan.xlsx
+++ b/BaoCaoCaNhan/Weekly_Report_Quan.xlsx
@@ -264,7 +264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="76">
   <si>
     <t>Project</t>
   </si>
@@ -486,6 +486,12 @@
   </si>
   <si>
     <t>layout admin</t>
+  </si>
+  <si>
+    <t>implement nhận sách/trả sách</t>
+  </si>
+  <si>
+    <t>receive/return book</t>
   </si>
 </sst>
 </file>
@@ -3205,7 +3211,7 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -20972,12 +20978,24 @@
       <c r="AMJ20" s="11"/>
     </row>
     <row r="21" spans="1:1024" s="12" customFormat="1">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
+      <c r="A21" s="14">
+        <v>40980</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="9">
+        <v>3</v>
+      </c>
+      <c r="F21" s="9">
+        <v>3</v>
+      </c>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>

--- a/BaoCaoCaNhan/Weekly_Report_Quan.xlsx
+++ b/BaoCaoCaNhan/Weekly_Report_Quan.xlsx
@@ -264,7 +264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="78">
   <si>
     <t>Project</t>
   </si>
@@ -492,6 +492,12 @@
   </si>
   <si>
     <t>receive/return book</t>
+  </si>
+  <si>
+    <t>implement phân quyền</t>
+  </si>
+  <si>
+    <t>phân quyền</t>
   </si>
 </sst>
 </file>
@@ -3210,8 +3216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3248,7 +3254,9 @@
         <v>33</v>
       </c>
       <c r="E1" s="1"/>
-      <c r="F1" s="15"/>
+      <c r="F1" s="15">
+        <v>50902143</v>
+      </c>
       <c r="G1" s="15"/>
       <c r="P1" s="4" t="s">
         <v>3</v>
@@ -22016,12 +22024,24 @@
       <c r="AMJ21" s="11"/>
     </row>
     <row r="22" spans="1:1024" s="12" customFormat="1">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
+      <c r="A22" s="14">
+        <v>41011</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="9">
+        <v>3</v>
+      </c>
+      <c r="F22" s="9">
+        <v>4</v>
+      </c>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
